--- a/results/pvalue_SIDER_rare_Chem_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_Chem_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.376</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.607</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.534</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.765</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.668</t>
+          <t>0.557</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.679</t>
+          <t>-4.687</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.335</t>
+          <t>-6.449</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.757</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
